--- a/Archivos Excel/tickets.xlsx
+++ b/Archivos Excel/tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A88D515-C38C-4EC2-AC03-E17610E6274F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F838D-2415-4DDC-85E0-436028A88004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{A89D3C12-CDF4-4C4E-8CD3-DE2A2005A2C3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#John Coltrane´s Band ID: 270</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>#Reincidentes´s Band ID: 430</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>insert into ticket values(</t>
   </si>
 </sst>
 </file>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1F7CC-FB06-4BA8-97EA-2D6B0BCAD974}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,6 +1466,577 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>CONCATENATE($C$42,A1,$C$44,B1,$C$43)</f>
+        <v>insert into ticket values(271,65);</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="str">
+        <f>CONCATENATE($C$42,E1,$C$44,F1,$C$43)</f>
+        <v>insert into ticket values(160,75);</v>
+      </c>
+      <c r="I43" t="str">
+        <f>CONCATENATE($C$42,I1,$C$44,J1,$C$43)</f>
+        <v>insert into ticket values(500,120);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" ref="A44:A84" si="0">CONCATENATE($C$42,A2,$C$44,B2,$C$43)</f>
+        <v>insert into ticket values(272,65);</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" ref="E44:E83" si="1">CONCATENATE($C$42,E2,$C$44,F2,$C$43)</f>
+        <v>insert into ticket values(161,75);</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" ref="I44:I83" si="2">CONCATENATE($C$42,I2,$C$44,J2,$C$43)</f>
+        <v>insert into ticket values(501,120);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(273,65);</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(162,75);</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(502,120);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(274,65);</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(163,75);</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(503,120);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(275,65);</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(164,75);</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(504,120);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(276,65);</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(165,75);</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(505,120);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(277,65);</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(166,75);</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(506,120);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(278,65);</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(167,75);</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(507,120);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(279,65);</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(168,75);</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(508,120);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(280,65);</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(169,75);</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(509,120);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(281,65);</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(170,75);</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(510,120);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(282,65);</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(171,75);</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(511,120);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(283,65);</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(172,75);</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(512,120);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(284,65);</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(173,75);</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(513,120);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(285,65);</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(174,75);</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(514,120);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(286,65);</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(175,75);</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(515,120);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(287,65);</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(176,75);</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(516,120);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(288,65);</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(177,75);</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(517,120);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(289,65);</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(178,75);</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(518,120);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(290,65);</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(179,75);</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(519,120);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(281,110);</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(170,110);</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(600,80);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(282,110);</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(171,110);</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(601,80);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(283,110);</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(172,110);</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(602,80);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(284,110);</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(173,110);</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(603,80);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(285,110);</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(174,110);</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(604,80);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(286,110);</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(175,110);</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(605,80);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(287,110);</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(176,110);</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(606,80);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(288,110);</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(177,110);</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(607,80);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(289,110);</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(178,110);</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(608,80);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(290,110);</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(179,110);</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(609,80);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(291,110);</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(180,110);</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(610,80);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(292,110);</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(181,110);</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(611,80);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>CONCATENATE($C$42,A34,$C$44,B34,$C$43)</f>
+        <v>insert into ticket values(293,110);</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(182,110);</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(612,80);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(294,110);</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(183,110);</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(613,80);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(295,110);</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(184,110);</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(614,80);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(296,110);</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(185,110);</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(615,80);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(297,110);</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(186,110);</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(616,80);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(298,110);</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(187,110);</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(617,80);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>CONCATENATE($C$42,A40,$C$44,B40,$C$43)</f>
+        <v>insert into ticket values(299,110);</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(188,110);</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(618,80);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ticket values(300,110);</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ticket values(189,110);</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ticket values(619,80);</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Archivos Excel/tickets.xlsx
+++ b/Archivos Excel/tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F838D-2415-4DDC-85E0-436028A88004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E89EEE-3C8A-48D8-9829-ABBD015A0921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{A89D3C12-CDF4-4C4E-8CD3-DE2A2005A2C3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -91,6 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1F7CC-FB06-4BA8-97EA-2D6B0BCAD974}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>271</v>
       </c>
@@ -444,8 +446,26 @@
         <v>2</v>
       </c>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3">
+        <v>900</v>
+      </c>
+      <c r="N1" s="3">
+        <v>60</v>
+      </c>
+      <c r="P1">
+        <v>430</v>
+      </c>
+      <c r="Q1">
+        <v>40</v>
+      </c>
+      <c r="S1">
+        <v>920</v>
+      </c>
+      <c r="T1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>272</v>
       </c>
@@ -470,8 +490,26 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>901</v>
+      </c>
+      <c r="N2" s="3">
+        <v>60</v>
+      </c>
+      <c r="P2">
+        <v>431</v>
+      </c>
+      <c r="Q2">
+        <v>40</v>
+      </c>
+      <c r="S2">
+        <v>921</v>
+      </c>
+      <c r="T2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>273</v>
       </c>
@@ -496,8 +534,26 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>902</v>
+      </c>
+      <c r="N3" s="3">
+        <v>60</v>
+      </c>
+      <c r="P3">
+        <v>432</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="S3">
+        <v>922</v>
+      </c>
+      <c r="T3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>274</v>
       </c>
@@ -522,8 +578,26 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>903</v>
+      </c>
+      <c r="N4" s="3">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>433</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>923</v>
+      </c>
+      <c r="T4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>275</v>
       </c>
@@ -548,8 +622,26 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>904</v>
+      </c>
+      <c r="N5" s="3">
+        <v>60</v>
+      </c>
+      <c r="P5">
+        <v>434</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>924</v>
+      </c>
+      <c r="T5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>276</v>
       </c>
@@ -574,8 +666,26 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>905</v>
+      </c>
+      <c r="N6" s="3">
+        <v>60</v>
+      </c>
+      <c r="P6">
+        <v>435</v>
+      </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>925</v>
+      </c>
+      <c r="T6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>277</v>
       </c>
@@ -600,8 +710,26 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>906</v>
+      </c>
+      <c r="N7" s="3">
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <v>436</v>
+      </c>
+      <c r="Q7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>926</v>
+      </c>
+      <c r="T7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>278</v>
       </c>
@@ -626,8 +754,26 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>907</v>
+      </c>
+      <c r="N8" s="3">
+        <v>60</v>
+      </c>
+      <c r="P8">
+        <v>437</v>
+      </c>
+      <c r="Q8">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>927</v>
+      </c>
+      <c r="T8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>279</v>
       </c>
@@ -652,8 +798,26 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>908</v>
+      </c>
+      <c r="N9" s="3">
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <v>438</v>
+      </c>
+      <c r="Q9">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>928</v>
+      </c>
+      <c r="T9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>280</v>
       </c>
@@ -678,8 +842,26 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>909</v>
+      </c>
+      <c r="N10" s="3">
+        <v>60</v>
+      </c>
+      <c r="P10">
+        <v>439</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>929</v>
+      </c>
+      <c r="T10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>281</v>
       </c>
@@ -704,8 +886,26 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>910</v>
+      </c>
+      <c r="N11" s="3">
+        <v>60</v>
+      </c>
+      <c r="P11">
+        <v>440</v>
+      </c>
+      <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="S11">
+        <v>930</v>
+      </c>
+      <c r="T11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>282</v>
       </c>
@@ -730,8 +930,26 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>911</v>
+      </c>
+      <c r="N12" s="3">
+        <v>60</v>
+      </c>
+      <c r="P12">
+        <v>441</v>
+      </c>
+      <c r="Q12">
+        <v>40</v>
+      </c>
+      <c r="S12">
+        <v>931</v>
+      </c>
+      <c r="T12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>283</v>
       </c>
@@ -756,8 +974,26 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>912</v>
+      </c>
+      <c r="N13" s="3">
+        <v>60</v>
+      </c>
+      <c r="P13">
+        <v>442</v>
+      </c>
+      <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>932</v>
+      </c>
+      <c r="T13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>284</v>
       </c>
@@ -782,8 +1018,26 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>913</v>
+      </c>
+      <c r="N14" s="3">
+        <v>60</v>
+      </c>
+      <c r="P14">
+        <v>443</v>
+      </c>
+      <c r="Q14">
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <v>933</v>
+      </c>
+      <c r="T14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>285</v>
       </c>
@@ -808,8 +1062,26 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>914</v>
+      </c>
+      <c r="N15" s="3">
+        <v>60</v>
+      </c>
+      <c r="P15">
+        <v>444</v>
+      </c>
+      <c r="Q15">
+        <v>40</v>
+      </c>
+      <c r="S15">
+        <v>934</v>
+      </c>
+      <c r="T15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>286</v>
       </c>
@@ -834,8 +1106,26 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>915</v>
+      </c>
+      <c r="N16" s="3">
+        <v>60</v>
+      </c>
+      <c r="P16">
+        <v>445</v>
+      </c>
+      <c r="Q16">
+        <v>40</v>
+      </c>
+      <c r="S16">
+        <v>935</v>
+      </c>
+      <c r="T16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>287</v>
       </c>
@@ -860,8 +1150,26 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>916</v>
+      </c>
+      <c r="N17" s="3">
+        <v>60</v>
+      </c>
+      <c r="P17">
+        <v>446</v>
+      </c>
+      <c r="Q17">
+        <v>40</v>
+      </c>
+      <c r="S17">
+        <v>936</v>
+      </c>
+      <c r="T17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>288</v>
       </c>
@@ -886,8 +1194,26 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>917</v>
+      </c>
+      <c r="N18" s="3">
+        <v>60</v>
+      </c>
+      <c r="P18">
+        <v>447</v>
+      </c>
+      <c r="Q18">
+        <v>40</v>
+      </c>
+      <c r="S18">
+        <v>937</v>
+      </c>
+      <c r="T18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>289</v>
       </c>
@@ -912,8 +1238,26 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>918</v>
+      </c>
+      <c r="N19" s="3">
+        <v>60</v>
+      </c>
+      <c r="P19">
+        <v>448</v>
+      </c>
+      <c r="Q19">
+        <v>40</v>
+      </c>
+      <c r="S19">
+        <v>938</v>
+      </c>
+      <c r="T19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>290</v>
       </c>
@@ -938,8 +1282,26 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>919</v>
+      </c>
+      <c r="N20" s="3">
+        <v>60</v>
+      </c>
+      <c r="P20">
+        <v>449</v>
+      </c>
+      <c r="Q20">
+        <v>40</v>
+      </c>
+      <c r="S20">
+        <v>939</v>
+      </c>
+      <c r="T20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="G21" s="2"/>
@@ -947,9 +1309,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B22">
         <v>110</v>
@@ -957,7 +1319,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F22">
         <v>110</v>
@@ -972,10 +1334,22 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>520</v>
+      </c>
+      <c r="N22">
+        <v>90</v>
+      </c>
+      <c r="S22">
+        <v>470</v>
+      </c>
+      <c r="T22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B23">
         <v>110</v>
@@ -983,7 +1357,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F23">
         <v>110</v>
@@ -998,10 +1372,22 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>521</v>
+      </c>
+      <c r="N23">
+        <v>90</v>
+      </c>
+      <c r="S23">
+        <v>471</v>
+      </c>
+      <c r="T23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B24">
         <v>110</v>
@@ -1009,7 +1395,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F24">
         <v>110</v>
@@ -1024,10 +1410,22 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>522</v>
+      </c>
+      <c r="N24">
+        <v>90</v>
+      </c>
+      <c r="S24">
+        <v>472</v>
+      </c>
+      <c r="T24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B25">
         <v>110</v>
@@ -1035,7 +1433,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F25">
         <v>110</v>
@@ -1050,10 +1448,22 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>523</v>
+      </c>
+      <c r="N25">
+        <v>90</v>
+      </c>
+      <c r="S25">
+        <v>473</v>
+      </c>
+      <c r="T25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B26">
         <v>110</v>
@@ -1061,7 +1471,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F26">
         <v>110</v>
@@ -1076,10 +1486,22 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>524</v>
+      </c>
+      <c r="N26">
+        <v>90</v>
+      </c>
+      <c r="S26">
+        <v>474</v>
+      </c>
+      <c r="T26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B27">
         <v>110</v>
@@ -1087,7 +1509,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F27">
         <v>110</v>
@@ -1102,10 +1524,22 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>525</v>
+      </c>
+      <c r="N27">
+        <v>90</v>
+      </c>
+      <c r="S27">
+        <v>475</v>
+      </c>
+      <c r="T27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B28">
         <v>110</v>
@@ -1113,7 +1547,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F28">
         <v>110</v>
@@ -1128,10 +1562,22 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>526</v>
+      </c>
+      <c r="N28">
+        <v>90</v>
+      </c>
+      <c r="S28">
+        <v>476</v>
+      </c>
+      <c r="T28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B29">
         <v>110</v>
@@ -1139,7 +1585,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F29">
         <v>110</v>
@@ -1154,10 +1600,22 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>527</v>
+      </c>
+      <c r="N29">
+        <v>90</v>
+      </c>
+      <c r="S29">
+        <v>477</v>
+      </c>
+      <c r="T29">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B30">
         <v>110</v>
@@ -1165,7 +1623,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F30">
         <v>110</v>
@@ -1180,10 +1638,22 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>528</v>
+      </c>
+      <c r="N30">
+        <v>90</v>
+      </c>
+      <c r="S30">
+        <v>478</v>
+      </c>
+      <c r="T30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B31">
         <v>110</v>
@@ -1191,7 +1661,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F31">
         <v>110</v>
@@ -1206,10 +1676,22 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>529</v>
+      </c>
+      <c r="N31">
+        <v>90</v>
+      </c>
+      <c r="S31">
+        <v>479</v>
+      </c>
+      <c r="T31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B32">
         <v>110</v>
@@ -1217,7 +1699,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F32">
         <v>110</v>
@@ -1232,10 +1714,22 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>530</v>
+      </c>
+      <c r="N32">
+        <v>90</v>
+      </c>
+      <c r="S32">
+        <v>480</v>
+      </c>
+      <c r="T32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B33">
         <v>110</v>
@@ -1243,7 +1737,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F33">
         <v>110</v>
@@ -1258,10 +1752,22 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>531</v>
+      </c>
+      <c r="N33">
+        <v>90</v>
+      </c>
+      <c r="S33">
+        <v>481</v>
+      </c>
+      <c r="T33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B34">
         <v>110</v>
@@ -1269,7 +1775,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F34">
         <v>110</v>
@@ -1284,10 +1790,22 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>532</v>
+      </c>
+      <c r="N34">
+        <v>90</v>
+      </c>
+      <c r="S34">
+        <v>482</v>
+      </c>
+      <c r="T34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B35">
         <v>110</v>
@@ -1295,7 +1813,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F35">
         <v>110</v>
@@ -1310,10 +1828,22 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>533</v>
+      </c>
+      <c r="N35">
+        <v>90</v>
+      </c>
+      <c r="S35">
+        <v>483</v>
+      </c>
+      <c r="T35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B36">
         <v>110</v>
@@ -1321,7 +1851,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F36">
         <v>110</v>
@@ -1336,10 +1866,22 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>534</v>
+      </c>
+      <c r="N36">
+        <v>90</v>
+      </c>
+      <c r="S36">
+        <v>484</v>
+      </c>
+      <c r="T36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B37">
         <v>110</v>
@@ -1347,7 +1889,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F37">
         <v>110</v>
@@ -1362,10 +1904,22 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>535</v>
+      </c>
+      <c r="N37">
+        <v>90</v>
+      </c>
+      <c r="S37">
+        <v>485</v>
+      </c>
+      <c r="T37">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B38">
         <v>110</v>
@@ -1373,7 +1927,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F38">
         <v>110</v>
@@ -1388,10 +1942,22 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>536</v>
+      </c>
+      <c r="N38">
+        <v>90</v>
+      </c>
+      <c r="S38">
+        <v>486</v>
+      </c>
+      <c r="T38">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B39">
         <v>110</v>
@@ -1399,7 +1965,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F39">
         <v>110</v>
@@ -1414,10 +1980,22 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>537</v>
+      </c>
+      <c r="N39">
+        <v>90</v>
+      </c>
+      <c r="S39">
+        <v>487</v>
+      </c>
+      <c r="T39">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B40">
         <v>110</v>
@@ -1425,7 +2003,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F40">
         <v>110</v>
@@ -1440,10 +2018,22 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>538</v>
+      </c>
+      <c r="N40">
+        <v>90</v>
+      </c>
+      <c r="S40">
+        <v>488</v>
+      </c>
+      <c r="T40">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B41">
         <v>110</v>
@@ -1451,7 +2041,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F41">
         <v>110</v>
@@ -1466,13 +2056,25 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>539</v>
+      </c>
+      <c r="N41">
+        <v>90</v>
+      </c>
+      <c r="S41">
+        <v>489</v>
+      </c>
+      <c r="T41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>CONCATENATE($C$42,A1,$C$44,B1,$C$43)</f>
         <v>insert into ticket values(271,65);</v>
@@ -1488,10 +2090,22 @@
         <f>CONCATENATE($C$42,I1,$C$44,J1,$C$43)</f>
         <v>insert into ticket values(500,120);</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="str">
+        <f>CONCATENATE($C$42,M1,$C$44,N1,$C$43)</f>
+        <v>insert into ticket values(900,60);</v>
+      </c>
+      <c r="P43" t="str">
+        <f>CONCATENATE($C$42,P1,$C$44,Q1,$C$43)</f>
+        <v>insert into ticket values(430,40);</v>
+      </c>
+      <c r="S43" t="str">
+        <f>CONCATENATE($C$42,S1,$C$44,T1,$C$43)</f>
+        <v>insert into ticket values(920,120);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" ref="A44:A84" si="0">CONCATENATE($C$42,A2,$C$44,B2,$C$43)</f>
+        <f t="shared" ref="A44:A83" si="0">CONCATENATE($C$42,A2,$C$44,B2,$C$43)</f>
         <v>insert into ticket values(272,65);</v>
       </c>
       <c r="C44" t="s">
@@ -1505,8 +2119,20 @@
         <f t="shared" ref="I44:I83" si="2">CONCATENATE($C$42,I2,$C$44,J2,$C$43)</f>
         <v>insert into ticket values(501,120);</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="str">
+        <f t="shared" ref="M44:M62" si="3">CONCATENATE($C$42,M2,$C$44,N2,$C$43)</f>
+        <v>insert into ticket values(901,60);</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" ref="P44:P62" si="4">CONCATENATE($C$42,P2,$C$44,Q2,$C$43)</f>
+        <v>insert into ticket values(431,40);</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" ref="S44:S83" si="5">CONCATENATE($C$42,S2,$C$44,T2,$C$43)</f>
+        <v>insert into ticket values(921,120);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(273,65);</v>
@@ -1519,8 +2145,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(502,120);</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(902,60);</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(432,40);</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(922,120);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(274,65);</v>
@@ -1533,8 +2171,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(503,120);</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(903,60);</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(433,40);</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(923,120);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(275,65);</v>
@@ -1547,8 +2197,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(504,120);</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(904,60);</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(434,40);</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(924,120);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(276,65);</v>
@@ -1561,8 +2223,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(505,120);</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(905,60);</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(435,40);</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(925,120);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(277,65);</v>
@@ -1575,8 +2249,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(506,120);</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(906,60);</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(436,40);</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(926,120);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(278,65);</v>
@@ -1589,8 +2275,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(507,120);</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M50" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(907,60);</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(437,40);</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(927,120);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(279,65);</v>
@@ -1603,8 +2301,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(508,120);</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M51" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(908,60);</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(438,40);</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(928,120);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(280,65);</v>
@@ -1617,8 +2327,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(509,120);</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M52" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(909,60);</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(439,40);</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(929,120);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(281,65);</v>
@@ -1631,8 +2353,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(510,120);</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M53" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(910,60);</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(440,40);</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(930,120);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(282,65);</v>
@@ -1645,8 +2379,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(511,120);</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M54" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(911,60);</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(441,40);</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(931,120);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(283,65);</v>
@@ -1659,8 +2405,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(512,120);</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M55" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(912,60);</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(442,40);</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(932,120);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(284,65);</v>
@@ -1673,8 +2431,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(513,120);</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M56" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(913,60);</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(443,40);</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(933,120);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(285,65);</v>
@@ -1687,8 +2457,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(514,120);</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M57" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(914,60);</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(444,40);</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(934,120);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(286,65);</v>
@@ -1701,8 +2483,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(515,120);</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M58" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(915,60);</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(445,40);</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(935,120);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(287,65);</v>
@@ -1715,8 +2509,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(516,120);</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M59" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(916,60);</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(446,40);</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(936,120);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(288,65);</v>
@@ -1729,8 +2535,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(517,120);</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M60" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(917,60);</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(447,40);</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(937,120);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(289,65);</v>
@@ -1743,8 +2561,20 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(518,120);</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M61" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(918,60);</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(448,40);</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(938,120);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>insert into ticket values(290,65);</v>
@@ -1757,285 +2587,457 @@
         <f t="shared" si="2"/>
         <v>insert into ticket values(519,120);</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M62" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ticket values(919,60);</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ticket values(449,40);</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(939,120);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(281,110);</v>
+        <v>insert into ticket values(291,110);</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(170,110);</v>
+        <v>insert into ticket values(180,110);</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(600,80);</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M64" t="str">
+        <f>CONCATENATE($C$42,M22,$C$44,N22,$C$43)</f>
+        <v>insert into ticket values(520,90);</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(470,99);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(282,110);</v>
+        <v>insert into ticket values(292,110);</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(171,110);</v>
+        <v>insert into ticket values(181,110);</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(601,80);</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M65" t="str">
+        <f t="shared" ref="M65:M83" si="6">CONCATENATE($C$42,M23,$C$44,N23,$C$43)</f>
+        <v>insert into ticket values(521,90);</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(471,99);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(283,110);</v>
+        <v>insert into ticket values(293,110);</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(172,110);</v>
+        <v>insert into ticket values(182,110);</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(602,80);</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(522,90);</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(472,99);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(284,110);</v>
+        <v>insert into ticket values(294,110);</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(173,110);</v>
+        <v>insert into ticket values(183,110);</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(603,80);</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(523,90);</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(473,99);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(285,110);</v>
+        <v>insert into ticket values(295,110);</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(174,110);</v>
+        <v>insert into ticket values(184,110);</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(604,80);</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(524,90);</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(474,99);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(286,110);</v>
+        <v>insert into ticket values(296,110);</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(175,110);</v>
+        <v>insert into ticket values(185,110);</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(605,80);</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M69" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(525,90);</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(475,99);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(287,110);</v>
+        <v>insert into ticket values(297,110);</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(176,110);</v>
+        <v>insert into ticket values(186,110);</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(606,80);</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M70" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(526,90);</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(476,99);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(288,110);</v>
+        <v>insert into ticket values(298,110);</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(177,110);</v>
+        <v>insert into ticket values(187,110);</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(607,80);</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M71" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(527,90);</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(477,99);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(289,110);</v>
+        <v>insert into ticket values(299,110);</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(178,110);</v>
+        <v>insert into ticket values(188,110);</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(608,80);</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M72" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(528,90);</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(478,99);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(290,110);</v>
+        <v>insert into ticket values(300,110);</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(179,110);</v>
+        <v>insert into ticket values(189,110);</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(609,80);</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(529,90);</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(479,99);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(291,110);</v>
+        <v>insert into ticket values(301,110);</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(180,110);</v>
+        <v>insert into ticket values(190,110);</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(610,80);</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(530,90);</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(480,99);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(292,110);</v>
+        <v>insert into ticket values(302,110);</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(181,110);</v>
+        <v>insert into ticket values(191,110);</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(611,80);</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(531,90);</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(481,99);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>CONCATENATE($C$42,A34,$C$44,B34,$C$43)</f>
-        <v>insert into ticket values(293,110);</v>
+        <v>insert into ticket values(303,110);</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(182,110);</v>
+        <v>insert into ticket values(192,110);</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(612,80);</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(532,90);</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(482,99);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(294,110);</v>
+        <v>insert into ticket values(304,110);</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(183,110);</v>
+        <v>insert into ticket values(193,110);</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(613,80);</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M77" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(533,90);</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(483,99);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(295,110);</v>
+        <v>insert into ticket values(305,110);</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(184,110);</v>
+        <v>insert into ticket values(194,110);</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(614,80);</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M78" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(534,90);</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(484,99);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(296,110);</v>
+        <v>insert into ticket values(306,110);</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(185,110);</v>
+        <v>insert into ticket values(195,110);</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(615,80);</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M79" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(535,90);</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(485,99);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(297,110);</v>
+        <v>insert into ticket values(307,110);</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(186,110);</v>
+        <v>insert into ticket values(196,110);</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(616,80);</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M80" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(536,90);</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(486,99);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(298,110);</v>
+        <v>insert into ticket values(308,110);</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(187,110);</v>
+        <v>insert into ticket values(197,110);</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(617,80);</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M81" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(537,90);</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(487,99);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>CONCATENATE($C$42,A40,$C$44,B40,$C$43)</f>
-        <v>insert into ticket values(299,110);</v>
+        <v>insert into ticket values(309,110);</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(188,110);</v>
+        <v>insert into ticket values(198,110);</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(618,80);</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(538,90);</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(488,99);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ticket values(300,110);</v>
+        <v>insert into ticket values(310,110);</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ticket values(189,110);</v>
+        <v>insert into ticket values(199,110);</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="2"/>
         <v>insert into ticket values(619,80);</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ticket values(539,90);</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ticket values(489,99);</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos Excel/tickets.xlsx
+++ b/Archivos Excel/tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3177D0-592F-4651-BC7B-42E1AE36E0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AC04E-F6E0-47FF-9A1D-B634ECC20BAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{A89D3C12-CDF4-4C4E-8CD3-DE2A2005A2C3}"/>
   </bookViews>
@@ -92,18 +92,18 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,43 +420,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1F7CC-FB06-4BA8-97EA-2D6B0BCAD974}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+      <c r="A1" s="2">
         <v>271</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>65</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4">
+      <c r="D1" s="5"/>
+      <c r="E1" s="2">
         <v>160</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>75</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="6"/>
       <c r="I1">
         <v>500</v>
       </c>
       <c r="J1">
         <v>120</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="1">
         <v>900</v>
       </c>
@@ -477,30 +477,30 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>272</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>65</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2">
         <v>161</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>75</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2">
         <v>501</v>
       </c>
       <c r="J2">
         <v>120</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2">
         <v>901</v>
       </c>
@@ -521,30 +521,30 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>273</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>65</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2">
         <v>162</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>75</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3">
         <v>502</v>
       </c>
       <c r="J3">
         <v>120</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3">
         <v>902</v>
       </c>
@@ -565,30 +565,30 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>274</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>65</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3">
         <v>163</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>75</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4">
         <v>503</v>
       </c>
       <c r="J4">
         <v>120</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4">
         <v>903</v>
       </c>
@@ -609,30 +609,30 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>275</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>65</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3">
         <v>164</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>75</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5">
         <v>504</v>
       </c>
       <c r="J5">
         <v>120</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5">
         <v>904</v>
       </c>
@@ -653,30 +653,30 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>276</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>65</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3">
         <v>165</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>75</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6">
         <v>505</v>
       </c>
       <c r="J6">
         <v>120</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6">
         <v>905</v>
       </c>
@@ -697,30 +697,30 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>277</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>65</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3">
         <v>166</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>75</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7">
         <v>506</v>
       </c>
       <c r="J7">
         <v>120</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7">
         <v>906</v>
       </c>
@@ -741,30 +741,30 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>278</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>65</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
         <v>167</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>75</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8">
         <v>507</v>
       </c>
       <c r="J8">
         <v>120</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8">
         <v>907</v>
       </c>
@@ -785,382 +785,382 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>279</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>65</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3">
         <v>168</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>75</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9">
         <v>508</v>
       </c>
       <c r="J9">
         <v>120</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9">
         <v>908</v>
       </c>
       <c r="N9" s="1">
         <v>60</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>438</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <v>40</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="2">
         <v>928</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>280</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>65</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3">
         <v>169</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>75</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10">
         <v>509</v>
       </c>
       <c r="J10">
         <v>120</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="4">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="2">
         <v>909</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <v>60</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>439</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="2">
         <v>40</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="2">
         <v>929</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>281</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>65</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2">
         <v>170</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>75</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11">
         <v>510</v>
       </c>
       <c r="J11">
         <v>120</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="2">
         <v>910</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="4">
         <v>60</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>440</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="2">
         <v>40</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="2">
         <v>930</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>282</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>65</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2">
         <v>171</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>75</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="2">
         <v>511</v>
       </c>
-      <c r="J12" s="4">
-        <v>120</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="4">
+      <c r="J12" s="2">
+        <v>120</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="2">
         <v>911</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="4">
         <v>60</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <v>441</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="2">
         <v>40</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="2">
         <v>931</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>283</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>65</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3">
         <v>172</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>75</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2">
         <v>512</v>
       </c>
-      <c r="J13" s="4">
-        <v>120</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="2">
+        <v>120</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="M13">
         <v>912</v>
       </c>
       <c r="N13" s="1">
         <v>60</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <v>442</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="2">
         <v>40</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="2">
         <v>932</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>284</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>65</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
         <v>173</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>75</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="2">
         <v>513</v>
       </c>
-      <c r="J14" s="4">
-        <v>120</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="2">
+        <v>120</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="M14">
         <v>913</v>
       </c>
       <c r="N14" s="1">
         <v>60</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <v>443</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="2">
         <v>40</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="2">
         <v>933</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>285</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>65</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3">
         <v>174</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>75</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="2">
         <v>514</v>
       </c>
-      <c r="J15" s="4">
-        <v>120</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="J15" s="2">
+        <v>120</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15">
         <v>914</v>
       </c>
       <c r="N15" s="1">
         <v>60</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <v>444</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="2">
         <v>40</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="2">
         <v>934</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>286</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>65</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3">
         <v>175</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>75</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="2">
         <v>515</v>
       </c>
-      <c r="J16" s="4">
-        <v>120</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="J16" s="2">
+        <v>120</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="M16">
         <v>915</v>
       </c>
       <c r="N16" s="1">
         <v>60</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>445</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="2">
         <v>40</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="2">
         <v>935</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>287</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>65</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3">
         <v>176</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>75</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="2">
         <v>516</v>
       </c>
-      <c r="J17" s="4">
-        <v>120</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="2">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
       <c r="M17">
         <v>916</v>
       </c>
@@ -1173,38 +1173,38 @@
       <c r="Q17">
         <v>40</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="2">
         <v>936</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>288</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>65</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3">
         <v>177</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>75</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2">
         <v>517</v>
       </c>
-      <c r="J18" s="4">
-        <v>120</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="2">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18">
         <v>917</v>
       </c>
@@ -1217,38 +1217,38 @@
       <c r="Q18">
         <v>40</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="2">
         <v>937</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>289</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>65</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3">
         <v>178</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>75</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="2">
         <v>518</v>
       </c>
-      <c r="J19" s="4">
-        <v>120</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="J19" s="2">
+        <v>120</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19">
         <v>918</v>
       </c>
@@ -1261,38 +1261,38 @@
       <c r="Q19">
         <v>40</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="2">
         <v>938</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>290</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>65</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3">
         <v>179</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>75</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2">
         <v>519</v>
       </c>
-      <c r="J20" s="4">
-        <v>120</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="2">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20">
         <v>919</v>
       </c>
@@ -1313,160 +1313,160 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>291</v>
       </c>
-      <c r="B22" s="5">
-        <v>110</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5">
+      <c r="B22" s="3">
+        <v>110</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3">
         <v>180</v>
       </c>
-      <c r="F22" s="5">
-        <v>110</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="F22" s="3">
+        <v>110</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22">
         <v>600</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="4">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="2">
         <v>520</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="2">
         <v>90</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="4">
         <v>470</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="4">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>292</v>
       </c>
-      <c r="B23" s="5">
-        <v>110</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5">
+      <c r="B23" s="3">
+        <v>110</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3">
         <v>181</v>
       </c>
-      <c r="F23" s="5">
-        <v>110</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="3">
+        <v>110</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23">
         <v>601</v>
       </c>
       <c r="J23">
         <v>80</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="4">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="2">
         <v>521</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2">
         <v>90</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="2">
         <v>471</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>293</v>
       </c>
-      <c r="B24" s="5">
-        <v>110</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5">
+      <c r="B24" s="3">
+        <v>110</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3">
         <v>182</v>
       </c>
-      <c r="F24" s="5">
-        <v>110</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="3">
+        <v>110</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24">
         <v>602</v>
       </c>
       <c r="J24">
         <v>80</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="4">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="2">
         <v>522</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2">
         <v>90</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="2">
         <v>472</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="2">
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>294</v>
       </c>
-      <c r="B25" s="5">
-        <v>110</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5">
+      <c r="B25" s="3">
+        <v>110</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3">
         <v>183</v>
       </c>
-      <c r="F25" s="5">
-        <v>110</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="3">
+        <v>110</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25">
         <v>603</v>
       </c>
       <c r="J25">
         <v>80</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="4">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="2">
         <v>523</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="2">
         <v>90</v>
       </c>
       <c r="S25">
@@ -1477,34 +1477,34 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>295</v>
       </c>
-      <c r="B26" s="5">
-        <v>110</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4">
+      <c r="B26" s="3">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2">
         <v>184</v>
       </c>
-      <c r="F26" s="4">
-        <v>110</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="2">
+        <v>110</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26">
         <v>604</v>
       </c>
       <c r="J26">
         <v>80</v>
       </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="4">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="2">
         <v>524</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="2">
         <v>90</v>
       </c>
       <c r="S26">
@@ -1515,30 +1515,30 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>296</v>
       </c>
-      <c r="B27" s="5">
-        <v>110</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5">
+      <c r="B27" s="3">
+        <v>110</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3">
         <v>185</v>
       </c>
-      <c r="F27" s="5">
-        <v>110</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27">
+      <c r="F27" s="3">
+        <v>110</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2">
         <v>605</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>80</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
       <c r="M27">
         <v>525</v>
       </c>
@@ -1553,30 +1553,30 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>297</v>
       </c>
-      <c r="B28" s="5">
-        <v>110</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5">
+      <c r="B28" s="3">
+        <v>110</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3">
         <v>186</v>
       </c>
-      <c r="F28" s="5">
-        <v>110</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28">
+      <c r="F28" s="3">
+        <v>110</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="2">
         <v>606</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>80</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
       <c r="M28">
         <v>526</v>
       </c>
@@ -1591,30 +1591,30 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>298</v>
       </c>
-      <c r="B29" s="5">
-        <v>110</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5">
+      <c r="B29" s="3">
+        <v>110</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="3">
         <v>187</v>
       </c>
-      <c r="F29" s="5">
-        <v>110</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29">
+      <c r="F29" s="3">
+        <v>110</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="2">
         <v>607</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>80</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
       <c r="M29">
         <v>527</v>
       </c>
@@ -1629,30 +1629,30 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>299</v>
       </c>
-      <c r="B30" s="5">
-        <v>110</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5">
+      <c r="B30" s="3">
+        <v>110</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3">
         <v>188</v>
       </c>
-      <c r="F30" s="5">
-        <v>110</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30">
+      <c r="F30" s="3">
+        <v>110</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="2">
         <v>608</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>80</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
       <c r="M30">
         <v>528</v>
       </c>
@@ -1667,30 +1667,30 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>300</v>
       </c>
-      <c r="B31" s="4">
-        <v>110</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5">
+      <c r="B31" s="2">
+        <v>110</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3">
         <v>189</v>
       </c>
-      <c r="F31" s="5">
-        <v>110</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31">
+      <c r="F31" s="3">
+        <v>110</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="2">
         <v>609</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>80</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
       <c r="M31">
         <v>529</v>
       </c>
@@ -1705,30 +1705,30 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>301</v>
       </c>
-      <c r="B32" s="4">
-        <v>110</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5">
+      <c r="B32" s="2">
+        <v>110</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3">
         <v>190</v>
       </c>
-      <c r="F32" s="5">
-        <v>110</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32">
+      <c r="F32" s="3">
+        <v>110</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="2">
         <v>610</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>80</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
       <c r="M32">
         <v>530</v>
       </c>
@@ -1743,30 +1743,30 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>302</v>
       </c>
-      <c r="B33" s="4">
-        <v>110</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="5">
+      <c r="B33" s="2">
+        <v>110</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3">
         <v>191</v>
       </c>
-      <c r="F33" s="5">
-        <v>110</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="F33" s="3">
+        <v>110</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33">
         <v>611</v>
       </c>
       <c r="J33">
         <v>80</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
       <c r="M33">
         <v>531</v>
       </c>
@@ -1781,30 +1781,30 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>303</v>
       </c>
-      <c r="B34" s="4">
-        <v>110</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5">
+      <c r="B34" s="2">
+        <v>110</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3">
         <v>192</v>
       </c>
-      <c r="F34" s="5">
-        <v>110</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="F34" s="3">
+        <v>110</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
       <c r="I34">
         <v>612</v>
       </c>
       <c r="J34">
         <v>80</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
       <c r="M34">
         <v>532</v>
       </c>
@@ -1819,30 +1819,30 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>304</v>
       </c>
-      <c r="B35" s="4">
-        <v>110</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="5">
+      <c r="B35" s="2">
+        <v>110</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3">
         <v>193</v>
       </c>
-      <c r="F35" s="5">
-        <v>110</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="F35" s="3">
+        <v>110</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35">
         <v>613</v>
       </c>
       <c r="J35">
         <v>80</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
       <c r="M35">
         <v>533</v>
       </c>
@@ -1857,30 +1857,30 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>305</v>
       </c>
-      <c r="B36" s="4">
-        <v>110</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5">
+      <c r="B36" s="2">
+        <v>110</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3">
         <v>194</v>
       </c>
-      <c r="F36" s="5">
-        <v>110</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="F36" s="3">
+        <v>110</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
       <c r="I36">
         <v>614</v>
       </c>
       <c r="J36">
         <v>80</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
       <c r="M36">
         <v>534</v>
       </c>
@@ -1895,30 +1895,30 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>306</v>
       </c>
-      <c r="B37" s="4">
-        <v>110</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5">
+      <c r="B37" s="2">
+        <v>110</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3">
         <v>195</v>
       </c>
-      <c r="F37" s="5">
-        <v>110</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="F37" s="3">
+        <v>110</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37">
         <v>615</v>
       </c>
       <c r="J37">
         <v>80</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
       <c r="M37">
         <v>535</v>
       </c>
@@ -1933,30 +1933,30 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>307</v>
       </c>
-      <c r="B38" s="4">
-        <v>110</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5">
+      <c r="B38" s="2">
+        <v>110</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3">
         <v>196</v>
       </c>
-      <c r="F38" s="5">
-        <v>110</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="F38" s="3">
+        <v>110</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38">
         <v>616</v>
       </c>
       <c r="J38">
         <v>80</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
       <c r="M38">
         <v>536</v>
       </c>
@@ -1971,30 +1971,30 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>308</v>
       </c>
-      <c r="B39" s="4">
-        <v>110</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5">
+      <c r="B39" s="2">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3">
         <v>197</v>
       </c>
-      <c r="F39" s="5">
-        <v>110</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="F39" s="3">
+        <v>110</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39">
         <v>617</v>
       </c>
       <c r="J39">
         <v>80</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
       <c r="M39">
         <v>537</v>
       </c>
@@ -2009,30 +2009,30 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>309</v>
       </c>
-      <c r="B40" s="5">
-        <v>110</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5">
+      <c r="B40" s="3">
+        <v>110</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3">
         <v>198</v>
       </c>
-      <c r="F40" s="5">
-        <v>110</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="F40" s="3">
+        <v>110</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
       <c r="I40">
         <v>618</v>
       </c>
       <c r="J40">
         <v>80</v>
       </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
       <c r="M40">
         <v>538</v>
       </c>
@@ -2047,30 +2047,30 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>310</v>
       </c>
-      <c r="B41" s="5">
-        <v>110</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5">
+      <c r="B41" s="3">
+        <v>110</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3">
         <v>199</v>
       </c>
-      <c r="F41" s="5">
-        <v>110</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="F41" s="3">
+        <v>110</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41">
         <v>619</v>
       </c>
       <c r="J41">
         <v>80</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
       <c r="M41">
         <v>539</v>
       </c>
